--- a/Essai/testing.xlsx
+++ b/Essai/testing.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>Farouk</t>
   </si>
@@ -42,21 +42,6 @@
     <t>Ben Cherifia</t>
   </si>
   <si>
-    <t>Youssef</t>
-  </si>
-  <si>
-    <t>Msakni</t>
-  </si>
-  <si>
-    <t>FW</t>
-  </si>
-  <si>
-    <t>Fkhreddine</t>
-  </si>
-  <si>
-    <t>Ben Youssef</t>
-  </si>
-  <si>
     <t>Joe</t>
   </si>
   <si>
@@ -91,6 +76,30 @@
   </si>
   <si>
     <t>DF</t>
+  </si>
+  <si>
+    <t>Def</t>
+  </si>
+  <si>
+    <t>Rami</t>
+  </si>
+  <si>
+    <t>Bedewi</t>
+  </si>
+  <si>
+    <t>Hamdi</t>
+  </si>
+  <si>
+    <t>Naguez</t>
+  </si>
+  <si>
+    <t>Hamza</t>
+  </si>
+  <si>
+    <t>Bilel</t>
+  </si>
+  <si>
+    <t>Ifa</t>
   </si>
 </sst>
 </file>
@@ -429,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,13 +493,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>34</v>
@@ -498,13 +507,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>34</v>
@@ -512,41 +521,41 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <v>33</v>
@@ -554,13 +563,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>33</v>
@@ -568,15 +577,43 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12">
         <v>33</v>
       </c>
     </row>
